--- a/logboek/Logboek-Maarten.xlsx
+++ b/logboek/Logboek-Maarten.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\!BarrocIT\ObesiCodeDocs\logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\Desktop\ObesiCodeDocs\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="6270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -50,20 +50,6 @@
     <t>Afspraken en opmerkingen</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Groepslid: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Noël van Bijnen</t>
-    </r>
-  </si>
-  <si>
     <t>Iedereen heeft tijd besteed aan met het gebruiken van Github.</t>
   </si>
   <si>
@@ -95,25 +81,34 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Groepslid: Maarten Donkersloot</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>interview afgemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vooronderzoek afgemaakt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">github geregeld aan het interview gewerkt en vooronderzoek </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -157,8 +152,8 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -475,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,12 +489,12 @@
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -528,20 +523,44 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -555,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -569,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -588,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -617,61 +636,61 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,76 +709,76 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -778,76 +797,76 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -866,76 +885,76 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Maarten.xlsx
+++ b/logboek/Logboek-Maarten.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -50,9 +50,6 @@
     <t>Afspraken en opmerkingen</t>
   </si>
   <si>
-    <t>Iedereen heeft tijd besteed aan met het gebruiken van Github.</t>
-  </si>
-  <si>
     <t>Groep 10: EA-Sports-3-0</t>
   </si>
   <si>
@@ -96,6 +93,21 @@
   </si>
   <si>
     <t xml:space="preserve">github geregeld aan het interview gewerkt en vooronderzoek </t>
+  </si>
+  <si>
+    <t>notule /vooronderzoek/interview met financiën gehouden</t>
+  </si>
+  <si>
+    <t>notule algemeen directeur/algemeen directuer intervidw</t>
+  </si>
+  <si>
+    <t>maken van uml diagram activiteiten/smar en doelstellingen</t>
+  </si>
+  <si>
+    <t>beginnen met tekenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afmaken tekeningen </t>
   </si>
 </sst>
 </file>
@@ -473,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,12 +501,12 @@
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -523,44 +535,23 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -574,7 +565,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -588,7 +582,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -607,7 +604,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,61 +636,73 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
       <c r="E23" s="4"/>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="4"/>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="4"/>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="4"/>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -709,76 +721,76 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -797,76 +809,76 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -885,76 +897,76 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
